--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel05/field_100ha_100ha_18%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel05/field_100ha_100ha_18%_6m_0_LM/Planilha_Unificada.xlsx
@@ -3102,28 +3102,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>9487.662804501768</v>
+        <v>9695.867147738814</v>
       </c>
       <c r="AB2" t="n">
-        <v>12981.43881526208</v>
+        <v>13266.31318300638</v>
       </c>
       <c r="AC2" t="n">
-        <v>11742.50851429679</v>
+        <v>12000.19487220724</v>
       </c>
       <c r="AD2" t="n">
-        <v>9487662.804501768</v>
+        <v>9695867.147738814</v>
       </c>
       <c r="AE2" t="n">
-        <v>12981438.81526208</v>
+        <v>13266313.18300638</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.216827127592879e-07</v>
+        <v>8.819305098339541e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>39</v>
+        <v>38.83750000000001</v>
       </c>
       <c r="AH2" t="n">
-        <v>11742508.51429678</v>
+        <v>12000194.87220724</v>
       </c>
     </row>
     <row r="3">
@@ -3208,28 +3208,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3118.544230967783</v>
+        <v>3233.018216363601</v>
       </c>
       <c r="AB3" t="n">
-        <v>4266.929797271894</v>
+        <v>4423.558154326269</v>
       </c>
       <c r="AC3" t="n">
-        <v>3859.700006093686</v>
+        <v>4001.379972580065</v>
       </c>
       <c r="AD3" t="n">
-        <v>3118544.230967783</v>
+        <v>3233018.216363601</v>
       </c>
       <c r="AE3" t="n">
-        <v>4266929.797271894</v>
+        <v>4423558.154326268</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.848657700889133e-07</v>
+        <v>1.664964449633396e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>20.57361111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>3859700.006093686</v>
+        <v>4001379.972580065</v>
       </c>
     </row>
     <row r="4">
@@ -3314,28 +3314,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2361.530149381274</v>
+        <v>2455.260507222501</v>
       </c>
       <c r="AB4" t="n">
-        <v>3231.149733740942</v>
+        <v>3359.395744430865</v>
       </c>
       <c r="AC4" t="n">
-        <v>2922.773338099719</v>
+        <v>3038.779729523796</v>
       </c>
       <c r="AD4" t="n">
-        <v>2361530.149381274</v>
+        <v>2455260.507222502</v>
       </c>
       <c r="AE4" t="n">
-        <v>3231149.733740942</v>
+        <v>3359395.744430865</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.154967012560202e-06</v>
+        <v>1.952529039808561e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.54444444444444</v>
       </c>
       <c r="AH4" t="n">
-        <v>2922773.338099719</v>
+        <v>3038779.729523796</v>
       </c>
     </row>
     <row r="5">
@@ -3420,28 +3420,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2049.889860540033</v>
+        <v>2133.12048283066</v>
       </c>
       <c r="AB5" t="n">
-        <v>2804.749741948955</v>
+        <v>2918.629551242897</v>
       </c>
       <c r="AC5" t="n">
-        <v>2537.068363068332</v>
+        <v>2640.079643194578</v>
       </c>
       <c r="AD5" t="n">
-        <v>2049889.860540033</v>
+        <v>2133120.482830659</v>
       </c>
       <c r="AE5" t="n">
-        <v>2804749.741948956</v>
+        <v>2918629.551242897</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.245707126468557e-06</v>
+        <v>2.105929704550373e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.26527777777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>2537068.363068332</v>
+        <v>2640079.643194578</v>
       </c>
     </row>
     <row r="6">
@@ -3526,28 +3526,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1855.21075981394</v>
+        <v>1938.526633450586</v>
       </c>
       <c r="AB6" t="n">
-        <v>2538.381207699746</v>
+        <v>2652.377661646337</v>
       </c>
       <c r="AC6" t="n">
-        <v>2296.121667877282</v>
+        <v>2399.238460254239</v>
       </c>
       <c r="AD6" t="n">
-        <v>1855210.75981394</v>
+        <v>1938526.633450586</v>
       </c>
       <c r="AE6" t="n">
-        <v>2538381.207699746</v>
+        <v>2652377.661646337</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.303477359760693e-06</v>
+        <v>2.20359315027024e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.54444444444444</v>
       </c>
       <c r="AH6" t="n">
-        <v>2296121.667877282</v>
+        <v>2399238.460254239</v>
       </c>
     </row>
     <row r="7">
@@ -3632,28 +3632,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1724.81396885415</v>
+        <v>1797.715447794767</v>
       </c>
       <c r="AB7" t="n">
-        <v>2359.96656560815</v>
+        <v>2459.713585280965</v>
       </c>
       <c r="AC7" t="n">
-        <v>2134.734668820385</v>
+        <v>2224.961972931448</v>
       </c>
       <c r="AD7" t="n">
-        <v>1724813.96885415</v>
+        <v>1797715.447794767</v>
       </c>
       <c r="AE7" t="n">
-        <v>2359966.56560815</v>
+        <v>2459713.585280965</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.341990848622117e-06</v>
+        <v>2.268702114083485e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>15.09861111111111</v>
       </c>
       <c r="AH7" t="n">
-        <v>2134734.668820385</v>
+        <v>2224961.972931448</v>
       </c>
     </row>
     <row r="8">
@@ -3738,28 +3738,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1599.94871131509</v>
+        <v>1683.179244097164</v>
       </c>
       <c r="AB8" t="n">
-        <v>2189.120411576826</v>
+        <v>2303.00009840122</v>
       </c>
       <c r="AC8" t="n">
-        <v>1980.193831945729</v>
+        <v>2083.205001290746</v>
       </c>
       <c r="AD8" t="n">
-        <v>1599948.71131509</v>
+        <v>1683179.244097164</v>
       </c>
       <c r="AE8" t="n">
-        <v>2189120.411576827</v>
+        <v>2303000.098401221</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.372334809543239e-06</v>
+        <v>2.320000085572709e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>14.76527777777778</v>
       </c>
       <c r="AH8" t="n">
-        <v>1980193.831945729</v>
+        <v>2083205.001290746</v>
       </c>
     </row>
     <row r="9">
@@ -3844,28 +3844,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1568.275782064009</v>
+        <v>1651.506314846084</v>
       </c>
       <c r="AB9" t="n">
-        <v>2145.784112464476</v>
+        <v>2259.66379928887</v>
       </c>
       <c r="AC9" t="n">
-        <v>1940.993488397783</v>
+        <v>2044.004657742801</v>
       </c>
       <c r="AD9" t="n">
-        <v>1568275.782064009</v>
+        <v>1651506.314846084</v>
       </c>
       <c r="AE9" t="n">
-        <v>2145784.112464476</v>
+        <v>2259663.79928887</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.38021256862853e-06</v>
+        <v>2.333317828170873e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>15</v>
+        <v>14.68055555555556</v>
       </c>
       <c r="AH9" t="n">
-        <v>1940993.488397783</v>
+        <v>2044004.657742801</v>
       </c>
     </row>
     <row r="10">
@@ -3950,28 +3950,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1575.364645595437</v>
+        <v>1658.595178377511</v>
       </c>
       <c r="AB10" t="n">
-        <v>2155.483408286763</v>
+        <v>2269.363095111157</v>
       </c>
       <c r="AC10" t="n">
-        <v>1949.767097039838</v>
+        <v>2052.778266384856</v>
       </c>
       <c r="AD10" t="n">
-        <v>1575364.645595436</v>
+        <v>1658595.178377511</v>
       </c>
       <c r="AE10" t="n">
-        <v>2155483.408286763</v>
+        <v>2269363.095111157</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.380066684201025e-06</v>
+        <v>2.333071203307943e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>15</v>
+        <v>14.68194444444444</v>
       </c>
       <c r="AH10" t="n">
-        <v>1949767.097039838</v>
+        <v>2052778.266384856</v>
       </c>
     </row>
   </sheetData>
@@ -4247,28 +4247,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>5653.862711661079</v>
+        <v>5815.055864107678</v>
       </c>
       <c r="AB2" t="n">
-        <v>7735.864392914024</v>
+        <v>7956.415975431467</v>
       </c>
       <c r="AC2" t="n">
-        <v>6997.564352607885</v>
+        <v>7197.066801635943</v>
       </c>
       <c r="AD2" t="n">
-        <v>5653862.711661079</v>
+        <v>5815055.864107678</v>
       </c>
       <c r="AE2" t="n">
-        <v>7735864.392914024</v>
+        <v>7956415.975431466</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.886269665988212e-07</v>
+        <v>1.1925579882662e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>31</v>
+        <v>30.43611111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>6997564.352607884</v>
+        <v>7197066.801635943</v>
       </c>
     </row>
     <row r="3">
@@ -4353,28 +4353,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2406.701132327602</v>
+        <v>2507.521469911632</v>
       </c>
       <c r="AB3" t="n">
-        <v>3292.954665411234</v>
+        <v>3430.901499173091</v>
       </c>
       <c r="AC3" t="n">
-        <v>2978.679693835161</v>
+        <v>3103.461075392378</v>
       </c>
       <c r="AD3" t="n">
-        <v>2406701.132327602</v>
+        <v>2507521.469911632</v>
       </c>
       <c r="AE3" t="n">
-        <v>3292954.665411234</v>
+        <v>3430901.499173091</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.115264800167716e-06</v>
+        <v>1.931405551892881e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.79444444444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>2978679.693835161</v>
+        <v>3103461.075392378</v>
       </c>
     </row>
     <row r="4">
@@ -4459,28 +4459,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1888.928716427008</v>
+        <v>1979.658486167177</v>
       </c>
       <c r="AB4" t="n">
-        <v>2584.515603469006</v>
+        <v>2708.65607714245</v>
       </c>
       <c r="AC4" t="n">
-        <v>2337.853061664356</v>
+        <v>2450.145742762655</v>
       </c>
       <c r="AD4" t="n">
-        <v>1888928.716427008</v>
+        <v>1979658.486167177</v>
       </c>
       <c r="AE4" t="n">
-        <v>2584515.603469006</v>
+        <v>2708656.07714245</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.269047591963508e-06</v>
+        <v>2.197725207830479e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.51805555555556</v>
       </c>
       <c r="AH4" t="n">
-        <v>2337853.061664355</v>
+        <v>2450145.742762655</v>
       </c>
     </row>
     <row r="5">
@@ -4565,28 +4565,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1639.397486462419</v>
+        <v>1719.951437012708</v>
       </c>
       <c r="AB5" t="n">
-        <v>2243.095966090534</v>
+        <v>2353.313435022924</v>
       </c>
       <c r="AC5" t="n">
-        <v>2029.018035291814</v>
+        <v>2128.716503680486</v>
       </c>
       <c r="AD5" t="n">
-        <v>1639397.486462419</v>
+        <v>1719951.437012708</v>
       </c>
       <c r="AE5" t="n">
-        <v>2243095.966090534</v>
+        <v>2353313.435022924</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.352352892327863e-06</v>
+        <v>2.341992577877146e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>2029018.035291814</v>
+        <v>2128716.503680486</v>
       </c>
     </row>
     <row r="6">
@@ -4671,28 +4671,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1468.919306176112</v>
+        <v>1549.558508072421</v>
       </c>
       <c r="AB6" t="n">
-        <v>2009.840198856298</v>
+        <v>2120.174312441336</v>
       </c>
       <c r="AC6" t="n">
-        <v>1818.023871105888</v>
+        <v>1917.827851745271</v>
       </c>
       <c r="AD6" t="n">
-        <v>1468919.306176112</v>
+        <v>1549558.508072421</v>
       </c>
       <c r="AE6" t="n">
-        <v>2009840.198856298</v>
+        <v>2120174.312441336</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.403513212660319e-06</v>
+        <v>2.430591560568849e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.93472222222222</v>
       </c>
       <c r="AH6" t="n">
-        <v>1818023.871105887</v>
+        <v>1917827.851745271</v>
       </c>
     </row>
     <row r="7">
@@ -4777,28 +4777,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1441.120430946671</v>
+        <v>1521.759632842981</v>
       </c>
       <c r="AB7" t="n">
-        <v>1971.804551367557</v>
+        <v>2082.138664952596</v>
       </c>
       <c r="AC7" t="n">
-        <v>1783.618292430106</v>
+        <v>1883.42227306949</v>
       </c>
       <c r="AD7" t="n">
-        <v>1441120.430946671</v>
+        <v>1521759.632842981</v>
       </c>
       <c r="AE7" t="n">
-        <v>1971804.551367557</v>
+        <v>2082138.664952596</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.412115390415334e-06</v>
+        <v>2.445488734649755e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.84305555555556</v>
       </c>
       <c r="AH7" t="n">
-        <v>1783618.292430106</v>
+        <v>1883422.27306949</v>
       </c>
     </row>
   </sheetData>
@@ -5074,28 +5074,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1734.776688201448</v>
+        <v>1825.759752128009</v>
       </c>
       <c r="AB2" t="n">
-        <v>2373.59799774328</v>
+        <v>2498.085039697096</v>
       </c>
       <c r="AC2" t="n">
-        <v>2147.065136204374</v>
+        <v>2259.671309592778</v>
       </c>
       <c r="AD2" t="n">
-        <v>1734776.688201448</v>
+        <v>1825759.752128009</v>
       </c>
       <c r="AE2" t="n">
-        <v>2373597.99774328</v>
+        <v>2498085.039697096</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.220897103754856e-06</v>
+        <v>2.310200044809538e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.15694444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>2147065.136204374</v>
+        <v>2259671.309592778</v>
       </c>
     </row>
     <row r="3">
@@ -5180,28 +5180,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1165.026864129389</v>
+        <v>1246.894472934684</v>
       </c>
       <c r="AB3" t="n">
-        <v>1594.041152859633</v>
+        <v>1706.056026971034</v>
       </c>
       <c r="AC3" t="n">
-        <v>1441.908102481518</v>
+        <v>1543.23243422159</v>
       </c>
       <c r="AD3" t="n">
-        <v>1165026.864129389</v>
+        <v>1246894.472934684</v>
       </c>
       <c r="AE3" t="n">
-        <v>1594041.152859633</v>
+        <v>1706056.026971034</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.465413323706862e-06</v>
+        <v>2.772877350335531e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.95972222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>1441908.102481518</v>
+        <v>1543232.43422159</v>
       </c>
     </row>
     <row r="4">
@@ -5286,28 +5286,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1172.209050926203</v>
+        <v>1254.076659731498</v>
       </c>
       <c r="AB4" t="n">
-        <v>1603.868137690751</v>
+        <v>1715.883011802152</v>
       </c>
       <c r="AC4" t="n">
-        <v>1450.797213672615</v>
+        <v>1552.121545412687</v>
       </c>
       <c r="AD4" t="n">
-        <v>1172209.050926202</v>
+        <v>1254076.659731498</v>
       </c>
       <c r="AE4" t="n">
-        <v>1603868.137690751</v>
+        <v>1715883.011802152</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.466760520511006e-06</v>
+        <v>2.775426536591873e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.94722222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>1450797.213672615</v>
+        <v>1552121.545412687</v>
       </c>
     </row>
   </sheetData>
@@ -5583,28 +5583,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2684.30482597056</v>
+        <v>2788.682513193237</v>
       </c>
       <c r="AB2" t="n">
-        <v>3672.784286064164</v>
+        <v>3815.598442540807</v>
       </c>
       <c r="AC2" t="n">
-        <v>3322.258908587182</v>
+        <v>3451.443082410616</v>
       </c>
       <c r="AD2" t="n">
-        <v>2684304.82597056</v>
+        <v>2788682.513193237</v>
       </c>
       <c r="AE2" t="n">
-        <v>3672784.286064164</v>
+        <v>3815598.442540807</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.004474424784511e-06</v>
+        <v>1.829934255445086e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.27777777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>3322258.908587182</v>
+        <v>3451443.082410616</v>
       </c>
     </row>
     <row r="3">
@@ -5689,28 +5689,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1492.819953948842</v>
+        <v>1568.707748834601</v>
       </c>
       <c r="AB3" t="n">
-        <v>2042.54211956111</v>
+        <v>2146.37514845703</v>
       </c>
       <c r="AC3" t="n">
-        <v>1847.604766396066</v>
+        <v>1941.528116744732</v>
       </c>
       <c r="AD3" t="n">
-        <v>1492819.953948842</v>
+        <v>1568707.748834601</v>
       </c>
       <c r="AE3" t="n">
-        <v>2042542.11956111</v>
+        <v>2146375.14845703</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.361316582105712e-06</v>
+        <v>2.480023168967277e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.4375</v>
       </c>
       <c r="AH3" t="n">
-        <v>1847604.766396066</v>
+        <v>1941528.116744732</v>
       </c>
     </row>
     <row r="4">
@@ -5795,28 +5795,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1258.22033751091</v>
+        <v>1334.022791542097</v>
       </c>
       <c r="AB4" t="n">
-        <v>1721.552574546106</v>
+        <v>1825.268836319829</v>
       </c>
       <c r="AC4" t="n">
-        <v>1557.250013045639</v>
+        <v>1651.067740362365</v>
       </c>
       <c r="AD4" t="n">
-        <v>1258220.33751091</v>
+        <v>1334022.791542097</v>
       </c>
       <c r="AE4" t="n">
-        <v>1721552.574546106</v>
+        <v>1825268.836319829</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.457333704346541e-06</v>
+        <v>2.654945513192662e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.35416666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1557250.013045639</v>
+        <v>1651067.740362365</v>
       </c>
     </row>
     <row r="5">
@@ -5901,28 +5901,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1264.199151818274</v>
+        <v>1340.001605849461</v>
       </c>
       <c r="AB5" t="n">
-        <v>1729.733052048113</v>
+        <v>1833.449313821836</v>
       </c>
       <c r="AC5" t="n">
-        <v>1564.649757256227</v>
+        <v>1658.467484572953</v>
       </c>
       <c r="AD5" t="n">
-        <v>1264199.151818274</v>
+        <v>1340001.605849461</v>
       </c>
       <c r="AE5" t="n">
-        <v>1729733.052048113</v>
+        <v>1833449.313821836</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.458461422225208e-06</v>
+        <v>2.656999970255711e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.34166666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1564649.757256227</v>
+        <v>1658467.484572953</v>
       </c>
     </row>
   </sheetData>
@@ -6198,28 +6198,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1181.698111898784</v>
+        <v>1260.751369401798</v>
       </c>
       <c r="AB2" t="n">
-        <v>1616.851489541263</v>
+        <v>1725.015644040466</v>
       </c>
       <c r="AC2" t="n">
-        <v>1462.541452644762</v>
+        <v>1560.382572047905</v>
       </c>
       <c r="AD2" t="n">
-        <v>1181698.111898784</v>
+        <v>1260751.369401798</v>
       </c>
       <c r="AE2" t="n">
-        <v>1616851.489541263</v>
+        <v>1725015.644040466</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.411594935561399e-06</v>
+        <v>2.766271257151944e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.20972222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>1462541.452644762</v>
+        <v>1560382.572047905</v>
       </c>
     </row>
     <row r="3">
@@ -6304,28 +6304,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1117.133576510895</v>
+        <v>1196.272085359929</v>
       </c>
       <c r="AB3" t="n">
-        <v>1528.51144383728</v>
+        <v>1636.792242989132</v>
       </c>
       <c r="AC3" t="n">
-        <v>1382.632456916734</v>
+        <v>1480.57908857059</v>
       </c>
       <c r="AD3" t="n">
-        <v>1117133.576510895</v>
+        <v>1196272.085359929</v>
       </c>
       <c r="AE3" t="n">
-        <v>1528511.44383728</v>
+        <v>1636792.242989132</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.449547618130699e-06</v>
+        <v>2.840646286615699e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.75694444444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>1382632.456916734</v>
+        <v>1480579.08857059</v>
       </c>
     </row>
   </sheetData>
@@ -6601,28 +6601,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>6397.598499761073</v>
+        <v>6560.32455225531</v>
       </c>
       <c r="AB2" t="n">
-        <v>8753.47650949976</v>
+        <v>8976.125473489157</v>
       </c>
       <c r="AC2" t="n">
-        <v>7918.056997014215</v>
+        <v>8119.45665637024</v>
       </c>
       <c r="AD2" t="n">
-        <v>6397598.499761073</v>
+        <v>6560324.55225531</v>
       </c>
       <c r="AE2" t="n">
-        <v>8753476.50949976</v>
+        <v>8976125.473489158</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.450511457146112e-07</v>
+        <v>1.109798373942427e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>33</v>
+        <v>32.20416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>7918056.997014215</v>
+        <v>8119456.65637024</v>
       </c>
     </row>
     <row r="3">
@@ -6707,28 +6707,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2580.842924123951</v>
+        <v>2682.429396823519</v>
       </c>
       <c r="AB3" t="n">
-        <v>3531.223147540655</v>
+        <v>3670.218241167087</v>
       </c>
       <c r="AC3" t="n">
-        <v>3194.208166442057</v>
+        <v>3319.937763413615</v>
       </c>
       <c r="AD3" t="n">
-        <v>2580842.92412395</v>
+        <v>2682429.396823519</v>
       </c>
       <c r="AE3" t="n">
-        <v>3531223.147540655</v>
+        <v>3670218.241167088</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.080419540144297e-06</v>
+        <v>1.858841514806422e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.225</v>
       </c>
       <c r="AH3" t="n">
-        <v>3194208.166442057</v>
+        <v>3319937.763413616</v>
       </c>
     </row>
     <row r="4">
@@ -6813,28 +6813,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2002.807924491448</v>
+        <v>2094.303942047021</v>
       </c>
       <c r="AB4" t="n">
-        <v>2740.330159938857</v>
+        <v>2865.519047677803</v>
       </c>
       <c r="AC4" t="n">
-        <v>2478.796895551827</v>
+        <v>2592.037931548676</v>
       </c>
       <c r="AD4" t="n">
-        <v>2002807.924491448</v>
+        <v>2094303.942047021</v>
       </c>
       <c r="AE4" t="n">
-        <v>2740330.159938857</v>
+        <v>2865519.047677803</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.238504182161534e-06</v>
+        <v>2.130823170558136e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.77083333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>2478796.895551827</v>
+        <v>2592037.931548676</v>
       </c>
     </row>
     <row r="5">
@@ -6919,28 +6919,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1743.167144389165</v>
+        <v>1824.572796309293</v>
       </c>
       <c r="AB5" t="n">
-        <v>2385.078190060116</v>
+        <v>2496.460994381133</v>
       </c>
       <c r="AC5" t="n">
-        <v>2157.449675079043</v>
+        <v>2258.202260882409</v>
       </c>
       <c r="AD5" t="n">
-        <v>1743167.144389165</v>
+        <v>1824572.796309293</v>
       </c>
       <c r="AE5" t="n">
-        <v>2385078.190060116</v>
+        <v>2496460.994381133</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.323005433570937e-06</v>
+        <v>2.276205985600444e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.7</v>
       </c>
       <c r="AH5" t="n">
-        <v>2157449.675079043</v>
+        <v>2258202.260882409</v>
       </c>
     </row>
     <row r="6">
@@ -7025,28 +7025,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1573.08755291159</v>
+        <v>1644.317587850253</v>
       </c>
       <c r="AB6" t="n">
-        <v>2152.367789618485</v>
+        <v>2249.827865868923</v>
       </c>
       <c r="AC6" t="n">
-        <v>1946.948828644461</v>
+        <v>2035.107452003634</v>
       </c>
       <c r="AD6" t="n">
-        <v>1573087.55291159</v>
+        <v>1644317.587850253</v>
       </c>
       <c r="AE6" t="n">
-        <v>2152367.789618485</v>
+        <v>2249827.865868923</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.377295618104766e-06</v>
+        <v>2.369611227831165e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.08194444444445</v>
       </c>
       <c r="AH6" t="n">
-        <v>1946948.828644461</v>
+        <v>2035107.452003634</v>
       </c>
     </row>
     <row r="7">
@@ -7131,28 +7131,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1473.637349127998</v>
+        <v>1554.957660193555</v>
       </c>
       <c r="AB7" t="n">
-        <v>2016.295633368433</v>
+        <v>2127.561670567252</v>
       </c>
       <c r="AC7" t="n">
-        <v>1823.863208008444</v>
+        <v>1924.510170779872</v>
       </c>
       <c r="AD7" t="n">
-        <v>1473637.349127998</v>
+        <v>1554957.660193555</v>
       </c>
       <c r="AE7" t="n">
-        <v>2016295.633368433</v>
+        <v>2127561.670567252</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.402720773396091e-06</v>
+        <v>2.413354729702301e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.80833333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>1823863.208008443</v>
+        <v>1924510.170779872</v>
       </c>
     </row>
     <row r="8">
@@ -7237,28 +7237,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1476.332048008201</v>
+        <v>1557.652359073758</v>
       </c>
       <c r="AB8" t="n">
-        <v>2019.982639258051</v>
+        <v>2131.248676456871</v>
       </c>
       <c r="AC8" t="n">
-        <v>1827.198331230702</v>
+        <v>1927.845294002131</v>
       </c>
       <c r="AD8" t="n">
-        <v>1476332.048008201</v>
+        <v>1557652.359073758</v>
       </c>
       <c r="AE8" t="n">
-        <v>2019982.639258052</v>
+        <v>2131248.676456871</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.403618131818137e-06</v>
+        <v>2.414898618003636e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>14.79861111111111</v>
       </c>
       <c r="AH8" t="n">
-        <v>1827198.331230703</v>
+        <v>1927845.294002131</v>
       </c>
     </row>
     <row r="9">
@@ -7343,28 +7343,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1480.683720524682</v>
+        <v>1562.004031590239</v>
       </c>
       <c r="AB9" t="n">
-        <v>2025.936789577343</v>
+        <v>2137.202826776163</v>
       </c>
       <c r="AC9" t="n">
-        <v>1832.584225800224</v>
+        <v>1933.231188571652</v>
       </c>
       <c r="AD9" t="n">
-        <v>1480683.720524682</v>
+        <v>1562004.031590239</v>
       </c>
       <c r="AE9" t="n">
-        <v>2025936.789577343</v>
+        <v>2137202.826776163</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.405113729188215e-06</v>
+        <v>2.417471765172526e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>15</v>
+        <v>14.78333333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>1832584.225800224</v>
+        <v>1933231.188571651</v>
       </c>
     </row>
   </sheetData>
@@ -7640,28 +7640,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1093.706975024137</v>
+        <v>1171.264254370429</v>
       </c>
       <c r="AB2" t="n">
-        <v>1496.458134174382</v>
+        <v>1602.575425361659</v>
       </c>
       <c r="AC2" t="n">
-        <v>1353.638270140961</v>
+        <v>1449.627875993878</v>
       </c>
       <c r="AD2" t="n">
-        <v>1093706.975024137</v>
+        <v>1171264.254370429</v>
       </c>
       <c r="AE2" t="n">
-        <v>1496458.134174382</v>
+        <v>1602575.425361659</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.420437389970485e-06</v>
+        <v>2.847494553123662e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.50138888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>1353638.270140961</v>
+        <v>1449627.875993878</v>
       </c>
     </row>
     <row r="3">
@@ -7746,28 +7746,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1104.582691782437</v>
+        <v>1181.969378928136</v>
       </c>
       <c r="AB3" t="n">
-        <v>1511.338769645848</v>
+        <v>1617.222649058278</v>
       </c>
       <c r="AC3" t="n">
-        <v>1367.098718648133</v>
+        <v>1462.877189218399</v>
       </c>
       <c r="AD3" t="n">
-        <v>1104582.691782437</v>
+        <v>1181969.378928136</v>
       </c>
       <c r="AE3" t="n">
-        <v>1511338.769645848</v>
+        <v>1617222.649058278</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.421153336235592e-06</v>
+        <v>2.8489297822331e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.49166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1367098.718648133</v>
+        <v>1462877.189218399</v>
       </c>
     </row>
   </sheetData>
@@ -8043,28 +8043,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3915.478495548399</v>
+        <v>4052.707338259665</v>
       </c>
       <c r="AB2" t="n">
-        <v>5357.330416329562</v>
+        <v>5545.092973036391</v>
       </c>
       <c r="AC2" t="n">
-        <v>4846.034320455331</v>
+        <v>5015.877082276456</v>
       </c>
       <c r="AD2" t="n">
-        <v>3915478.495548399</v>
+        <v>4052707.338259665</v>
       </c>
       <c r="AE2" t="n">
-        <v>5357330.416329562</v>
+        <v>5545092.973036391</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.331134144065756e-07</v>
+        <v>1.475505762989111e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.92083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>4846034.320455331</v>
+        <v>5015877.082276456</v>
       </c>
     </row>
     <row r="3">
@@ -8149,28 +8149,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1939.696220526441</v>
+        <v>2028.024486225275</v>
       </c>
       <c r="AB3" t="n">
-        <v>2653.977942282061</v>
+        <v>2774.832572179268</v>
       </c>
       <c r="AC3" t="n">
-        <v>2400.686012352096</v>
+        <v>2510.006445992453</v>
       </c>
       <c r="AD3" t="n">
-        <v>1939696.220526441</v>
+        <v>2028024.486225275</v>
       </c>
       <c r="AE3" t="n">
-        <v>2653977.942282061</v>
+        <v>2774832.572179268</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.227590594762955e-06</v>
+        <v>2.174154161776602e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.59305555555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>2400686.012352096</v>
+        <v>2510006.445992453</v>
       </c>
     </row>
     <row r="4">
@@ -8255,28 +8255,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1536.285141901941</v>
+        <v>1614.79915585646</v>
       </c>
       <c r="AB4" t="n">
-        <v>2102.013107267298</v>
+        <v>2209.439444953705</v>
       </c>
       <c r="AC4" t="n">
-        <v>1901.399926503632</v>
+        <v>1998.57364529506</v>
       </c>
       <c r="AD4" t="n">
-        <v>1536285.141901941</v>
+        <v>1614799.15585646</v>
       </c>
       <c r="AE4" t="n">
-        <v>2102013.107267298</v>
+        <v>2209439.444953705</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.370019091888081e-06</v>
+        <v>2.426405613605274e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.76388888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>1901399.926503632</v>
+        <v>1998573.64529506</v>
       </c>
     </row>
     <row r="5">
@@ -8361,28 +8361,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1356.375127895054</v>
+        <v>1425.074979613809</v>
       </c>
       <c r="AB5" t="n">
-        <v>1855.852289033427</v>
+        <v>1949.850456978582</v>
       </c>
       <c r="AC5" t="n">
-        <v>1678.732351273123</v>
+        <v>1763.759465996849</v>
       </c>
       <c r="AD5" t="n">
-        <v>1356375.127895053</v>
+        <v>1425074.979613809</v>
       </c>
       <c r="AE5" t="n">
-        <v>1855852.289033427</v>
+        <v>1949850.456978582</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.435169245049028e-06</v>
+        <v>2.541791375959219e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.04722222222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>1678732.351273123</v>
+        <v>1763759.465996849</v>
       </c>
     </row>
     <row r="6">
@@ -8467,28 +8467,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1358.818864290241</v>
+        <v>1427.518716008996</v>
       </c>
       <c r="AB6" t="n">
-        <v>1859.195916979363</v>
+        <v>1953.194084924518</v>
       </c>
       <c r="AC6" t="n">
-        <v>1681.75686806071</v>
+        <v>1766.783982784437</v>
       </c>
       <c r="AD6" t="n">
-        <v>1358818.864290241</v>
+        <v>1427518.716008996</v>
       </c>
       <c r="AE6" t="n">
-        <v>1859195.916979363</v>
+        <v>1953194.084924518</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.436413162054487e-06</v>
+        <v>2.543994445407504e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.03472222222222</v>
       </c>
       <c r="AH6" t="n">
-        <v>1681756.86806071</v>
+        <v>1766783.982784437</v>
       </c>
     </row>
   </sheetData>
@@ -8764,28 +8764,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4993.535121887246</v>
+        <v>5143.482656440058</v>
       </c>
       <c r="AB2" t="n">
-        <v>6832.375052988157</v>
+        <v>7037.539884981674</v>
       </c>
       <c r="AC2" t="n">
-        <v>6180.302767229323</v>
+        <v>6365.886955608022</v>
       </c>
       <c r="AD2" t="n">
-        <v>4993535.121887245</v>
+        <v>5143482.656440058</v>
       </c>
       <c r="AE2" t="n">
-        <v>6832375.052988158</v>
+        <v>7037539.884981674</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.349308769209912e-07</v>
+        <v>1.281655275770778e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.79305555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>6180302.767229323</v>
+        <v>6365886.955608021</v>
       </c>
     </row>
     <row r="3">
@@ -8870,28 +8870,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2248.111114812097</v>
+        <v>2338.045588710507</v>
       </c>
       <c r="AB3" t="n">
-        <v>3075.964806948723</v>
+        <v>3199.017121765502</v>
       </c>
       <c r="AC3" t="n">
-        <v>2782.399042917141</v>
+        <v>2893.70741751281</v>
       </c>
       <c r="AD3" t="n">
-        <v>2248111.114812097</v>
+        <v>2338045.588710507</v>
       </c>
       <c r="AE3" t="n">
-        <v>3075964.806948723</v>
+        <v>3199017.121765501</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.151452646718253e-06</v>
+        <v>2.008032871947666e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.37777777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>2782399.042917141</v>
+        <v>2893707.41751281</v>
       </c>
     </row>
     <row r="4">
@@ -8976,28 +8976,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1772.883760956984</v>
+        <v>1852.816043161569</v>
       </c>
       <c r="AB4" t="n">
-        <v>2425.737775852805</v>
+        <v>2535.104650728529</v>
       </c>
       <c r="AC4" t="n">
-        <v>2194.228767069763</v>
+        <v>2293.157820904722</v>
       </c>
       <c r="AD4" t="n">
-        <v>1772883.760956984</v>
+        <v>1852816.043161569</v>
       </c>
       <c r="AE4" t="n">
-        <v>2425737.775852805</v>
+        <v>2535104.650728529</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.301820966685296e-06</v>
+        <v>2.270262091928129e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.25416666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>2194228.767069764</v>
+        <v>2293157.820904722</v>
       </c>
     </row>
     <row r="5">
@@ -9082,28 +9082,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1536.947201554101</v>
+        <v>1616.794142904114</v>
       </c>
       <c r="AB5" t="n">
-        <v>2102.918966491394</v>
+        <v>2212.169074244921</v>
       </c>
       <c r="AC5" t="n">
-        <v>1902.219331794762</v>
+        <v>2001.042762597781</v>
       </c>
       <c r="AD5" t="n">
-        <v>1536947.201554101</v>
+        <v>1616794.142904114</v>
       </c>
       <c r="AE5" t="n">
-        <v>2102918.966491394</v>
+        <v>2212169.074244922</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.38195646445902e-06</v>
+        <v>2.410011402677597e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.31111111111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>1902219.331794762</v>
+        <v>2001042.762597781</v>
       </c>
     </row>
     <row r="6">
@@ -9188,28 +9188,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1409.368654946859</v>
+        <v>1489.300847642893</v>
       </c>
       <c r="AB6" t="n">
-        <v>1928.36037065512</v>
+        <v>2037.727123061297</v>
       </c>
       <c r="AC6" t="n">
-        <v>1744.320363350573</v>
+        <v>1843.249306404306</v>
       </c>
       <c r="AD6" t="n">
-        <v>1409368.654946859</v>
+        <v>1489300.847642893</v>
       </c>
       <c r="AE6" t="n">
-        <v>1928360.37065512</v>
+        <v>2037727.123061297</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.418977236244219e-06</v>
+        <v>2.474572396046647e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.9125</v>
       </c>
       <c r="AH6" t="n">
-        <v>1744320.363350573</v>
+        <v>1843249.306404306</v>
       </c>
     </row>
     <row r="7">
@@ -9294,28 +9294,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1411.655885197224</v>
+        <v>1491.588077893258</v>
       </c>
       <c r="AB7" t="n">
-        <v>1931.489859989146</v>
+        <v>2040.856612395324</v>
       </c>
       <c r="AC7" t="n">
-        <v>1747.151178614826</v>
+        <v>1846.080121668559</v>
       </c>
       <c r="AD7" t="n">
-        <v>1411655.885197224</v>
+        <v>1491588.077893258</v>
       </c>
       <c r="AE7" t="n">
-        <v>1931489.859989146</v>
+        <v>2040856.612395324</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.421110120215383e-06</v>
+        <v>2.478291959450625e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.88888888888889</v>
       </c>
       <c r="AH7" t="n">
-        <v>1747151.178614826</v>
+        <v>1846080.121668559</v>
       </c>
     </row>
   </sheetData>
@@ -9591,28 +9591,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>8277.113196078875</v>
+        <v>8473.268344176851</v>
       </c>
       <c r="AB2" t="n">
-        <v>11325.11143533824</v>
+        <v>11593.49956272029</v>
       </c>
       <c r="AC2" t="n">
-        <v>10244.25869484286</v>
+        <v>10487.03223603266</v>
       </c>
       <c r="AD2" t="n">
-        <v>8277113.196078876</v>
+        <v>8473268.344176851</v>
       </c>
       <c r="AE2" t="n">
-        <v>11325111.43533824</v>
+        <v>11593499.56272029</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.617334174941177e-07</v>
+        <v>9.549095800832576e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>37</v>
+        <v>36.36111111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>10244258.69484286</v>
+        <v>10487032.23603266</v>
       </c>
     </row>
     <row r="3">
@@ -9697,28 +9697,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2935.370741058987</v>
+        <v>3038.65974295146</v>
       </c>
       <c r="AB3" t="n">
-        <v>4016.303747334621</v>
+        <v>4157.628316513073</v>
       </c>
       <c r="AC3" t="n">
-        <v>3632.993354606566</v>
+        <v>3760.830105252899</v>
       </c>
       <c r="AD3" t="n">
-        <v>2935370.741058987</v>
+        <v>3038659.74295146</v>
       </c>
       <c r="AE3" t="n">
-        <v>4016303.747334621</v>
+        <v>4157628.316513072</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.015531670474968e-06</v>
+        <v>1.726336534045806e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>20.10972222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>3632993.354606566</v>
+        <v>3760830.105252899</v>
       </c>
     </row>
     <row r="4">
@@ -9803,28 +9803,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2243.80108837304</v>
+        <v>2336.667324087092</v>
       </c>
       <c r="AB4" t="n">
-        <v>3070.067638629858</v>
+        <v>3197.131319303002</v>
       </c>
       <c r="AC4" t="n">
-        <v>2777.064692065902</v>
+        <v>2892.001593390592</v>
       </c>
       <c r="AD4" t="n">
-        <v>2243801.08837304</v>
+        <v>2336667.324087092</v>
       </c>
       <c r="AE4" t="n">
-        <v>3070067.638629858</v>
+        <v>3197131.319303002</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.181698885597573e-06</v>
+        <v>2.008809786792947e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.28333333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>2777064.692065902</v>
+        <v>2892001.593390592</v>
       </c>
     </row>
     <row r="5">
@@ -9909,28 +9909,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1950.476407539718</v>
+        <v>2033.090558784492</v>
       </c>
       <c r="AB5" t="n">
-        <v>2668.727869741912</v>
+        <v>2781.764196154137</v>
       </c>
       <c r="AC5" t="n">
-        <v>2414.028227436834</v>
+        <v>2516.276525503756</v>
       </c>
       <c r="AD5" t="n">
-        <v>1950476.407539718</v>
+        <v>2033090.558784492</v>
       </c>
       <c r="AE5" t="n">
-        <v>2668727.869741912</v>
+        <v>2781764.196154137</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.270517467840099e-06</v>
+        <v>2.159795490031242e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.075</v>
       </c>
       <c r="AH5" t="n">
-        <v>2414028.227436834</v>
+        <v>2516276.525503756</v>
       </c>
     </row>
     <row r="6">
@@ -10015,28 +10015,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1766.172285173893</v>
+        <v>1848.701095564096</v>
       </c>
       <c r="AB6" t="n">
-        <v>2416.554838596964</v>
+        <v>2529.474397886991</v>
       </c>
       <c r="AC6" t="n">
-        <v>2185.922236457287</v>
+        <v>2288.06491149227</v>
       </c>
       <c r="AD6" t="n">
-        <v>1766172.285173893</v>
+        <v>1848701.095564096</v>
       </c>
       <c r="AE6" t="n">
-        <v>2416554.838596964</v>
+        <v>2529474.397886991</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.326102607058103e-06</v>
+        <v>2.25428654272011e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.40138888888889</v>
       </c>
       <c r="AH6" t="n">
-        <v>2185922.236457287</v>
+        <v>2288064.91149227</v>
       </c>
     </row>
     <row r="7">
@@ -10121,28 +10121,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1618.093451582764</v>
+        <v>1700.707513318987</v>
       </c>
       <c r="AB7" t="n">
-        <v>2213.946845700503</v>
+        <v>2326.98304964318</v>
       </c>
       <c r="AC7" t="n">
-        <v>2002.650866040761</v>
+        <v>2104.899053326456</v>
       </c>
       <c r="AD7" t="n">
-        <v>1618093.451582764</v>
+        <v>1700707.513318987</v>
       </c>
       <c r="AE7" t="n">
-        <v>2213946.845700503</v>
+        <v>2326983.04964318</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.36610037919381e-06</v>
+        <v>2.322280104443315e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.95</v>
       </c>
       <c r="AH7" t="n">
-        <v>2002650.866040761</v>
+        <v>2104899.053326456</v>
       </c>
     </row>
     <row r="8">
@@ -10227,28 +10227,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1536.08167512951</v>
+        <v>1618.695736865734</v>
       </c>
       <c r="AB8" t="n">
-        <v>2101.734715052938</v>
+        <v>2214.770918995614</v>
       </c>
       <c r="AC8" t="n">
-        <v>1901.148103651484</v>
+        <v>2003.39629093718</v>
       </c>
       <c r="AD8" t="n">
-        <v>1536081.67512951</v>
+        <v>1618695.736865734</v>
       </c>
       <c r="AE8" t="n">
-        <v>2101734.715052938</v>
+        <v>2214770.918995614</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.387275670324478e-06</v>
+        <v>2.358276695943836e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>14.72222222222222</v>
       </c>
       <c r="AH8" t="n">
-        <v>1901148.103651484</v>
+        <v>2003396.29093718</v>
       </c>
     </row>
     <row r="9">
@@ -10333,28 +10333,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1539.580639202219</v>
+        <v>1622.194700938442</v>
       </c>
       <c r="AB9" t="n">
-        <v>2106.522152060618</v>
+        <v>2219.558356003294</v>
       </c>
       <c r="AC9" t="n">
-        <v>1905.478634390361</v>
+        <v>2007.726821676057</v>
       </c>
       <c r="AD9" t="n">
-        <v>1539580.639202219</v>
+        <v>1622194.700938442</v>
       </c>
       <c r="AE9" t="n">
-        <v>2106522.152060618</v>
+        <v>2219558.356003294</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.388157974121589e-06</v>
+        <v>2.359776553923024e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>15</v>
+        <v>14.71388888888889</v>
       </c>
       <c r="AH9" t="n">
-        <v>1905478.634390361</v>
+        <v>2007726.821676057</v>
       </c>
     </row>
   </sheetData>
@@ -10630,28 +10630,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3055.176245864264</v>
+        <v>3170.303409997521</v>
       </c>
       <c r="AB2" t="n">
-        <v>4180.226924455055</v>
+        <v>4337.748989474206</v>
       </c>
       <c r="AC2" t="n">
-        <v>3781.271933770244</v>
+        <v>3923.760313987566</v>
       </c>
       <c r="AD2" t="n">
-        <v>3055176.245864264</v>
+        <v>3170303.409997521</v>
       </c>
       <c r="AE2" t="n">
-        <v>4180226.924455055</v>
+        <v>4337748.989474205</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.435407909577308e-07</v>
+        <v>1.701427325535277e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.41805555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>3781271.933770244</v>
+        <v>3923760.313987567</v>
       </c>
     </row>
     <row r="3">
@@ -10736,28 +10736,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1639.445142390533</v>
+        <v>1725.833118786347</v>
       </c>
       <c r="AB3" t="n">
-        <v>2243.161171033811</v>
+        <v>2361.361011507103</v>
       </c>
       <c r="AC3" t="n">
-        <v>2029.07701716682</v>
+        <v>2135.99603075986</v>
       </c>
       <c r="AD3" t="n">
-        <v>1639445.142390533</v>
+        <v>1725833.118786347</v>
       </c>
       <c r="AE3" t="n">
-        <v>2243161.171033811</v>
+        <v>2361361.011507103</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.313257330864284e-06</v>
+        <v>2.368113736687525e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.825</v>
       </c>
       <c r="AH3" t="n">
-        <v>2029077.01716682</v>
+        <v>2135996.03075986</v>
       </c>
     </row>
     <row r="4">
@@ -10842,28 +10842,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1309.382571503534</v>
+        <v>1386.077150192174</v>
       </c>
       <c r="AB4" t="n">
-        <v>1791.555000213279</v>
+        <v>1896.49190630109</v>
       </c>
       <c r="AC4" t="n">
-        <v>1620.571505456158</v>
+        <v>1715.493380506822</v>
       </c>
       <c r="AD4" t="n">
-        <v>1309382.571503534</v>
+        <v>1386077.150192174</v>
       </c>
       <c r="AE4" t="n">
-        <v>1791555.000213279</v>
+        <v>1896491.90630109</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.443071744187755e-06</v>
+        <v>2.602199843185044e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.31111111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>1620571.505456158</v>
+        <v>1715493.380506822</v>
       </c>
     </row>
     <row r="5">
@@ -10948,28 +10948,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1293.639599388491</v>
+        <v>1370.33417807713</v>
       </c>
       <c r="AB5" t="n">
-        <v>1770.014771234564</v>
+        <v>1874.951677322375</v>
       </c>
       <c r="AC5" t="n">
-        <v>1601.087045699271</v>
+        <v>1696.008920749934</v>
       </c>
       <c r="AD5" t="n">
-        <v>1293639.599388491</v>
+        <v>1370334.17807713</v>
       </c>
       <c r="AE5" t="n">
-        <v>1770014.771234564</v>
+        <v>1874951.677322375</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.451821490183823e-06</v>
+        <v>2.617977705755343e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.21944444444444</v>
       </c>
       <c r="AH5" t="n">
-        <v>1601087.045699271</v>
+        <v>1696008.920749934</v>
       </c>
     </row>
   </sheetData>
@@ -11245,28 +11245,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2028.318974257092</v>
+        <v>2120.750927905834</v>
       </c>
       <c r="AB2" t="n">
-        <v>2775.235503696296</v>
+        <v>2901.704980488502</v>
       </c>
       <c r="AC2" t="n">
-        <v>2510.370922291013</v>
+        <v>2624.770329719197</v>
       </c>
       <c r="AD2" t="n">
-        <v>2028318.974257092</v>
+        <v>2120750.927905834</v>
       </c>
       <c r="AE2" t="n">
-        <v>2775235.503696296</v>
+        <v>2901704.980488502</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.142109020334233e-06</v>
+        <v>2.130810365089451e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.15277777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>2510370.922291013</v>
+        <v>2624770.329719197</v>
       </c>
     </row>
     <row r="3">
@@ -11351,28 +11351,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1208.653849361789</v>
+        <v>1282.667613357599</v>
       </c>
       <c r="AB3" t="n">
-        <v>1653.733518741353</v>
+        <v>1755.002415897237</v>
       </c>
       <c r="AC3" t="n">
-        <v>1495.903512742248</v>
+        <v>1587.507448485365</v>
       </c>
       <c r="AD3" t="n">
-        <v>1208653.849361789</v>
+        <v>1282667.613357599</v>
       </c>
       <c r="AE3" t="n">
-        <v>1653733.518741353</v>
+        <v>1755002.415897237</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.458293583711731e-06</v>
+        <v>2.720709694252346e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.78194444444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>1495903.512742248</v>
+        <v>1587507.448485365</v>
       </c>
     </row>
     <row r="4">
@@ -11457,28 +11457,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1199.934444601187</v>
+        <v>1273.948208596996</v>
       </c>
       <c r="AB4" t="n">
-        <v>1641.803244474907</v>
+        <v>1743.072141630792</v>
       </c>
       <c r="AC4" t="n">
-        <v>1485.111847107548</v>
+        <v>1576.715782850664</v>
       </c>
       <c r="AD4" t="n">
-        <v>1199934.444601187</v>
+        <v>1273948.208596996</v>
       </c>
       <c r="AE4" t="n">
-        <v>1641803.244474907</v>
+        <v>1743072.141630792</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.466745057890061e-06</v>
+        <v>2.736477443616763e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.69166666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1485111.847107548</v>
+        <v>1576715.782850664</v>
       </c>
     </row>
   </sheetData>
@@ -20527,28 +20527,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1450.056036623868</v>
+        <v>1530.672189096282</v>
       </c>
       <c r="AB2" t="n">
-        <v>1984.030641266199</v>
+        <v>2094.333217612595</v>
       </c>
       <c r="AC2" t="n">
-        <v>1794.677541468246</v>
+        <v>1894.45299473878</v>
       </c>
       <c r="AD2" t="n">
-        <v>1450056.036623868</v>
+        <v>1530672.189096282</v>
       </c>
       <c r="AE2" t="n">
-        <v>1984030.641266199</v>
+        <v>2094333.217612595</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.311570563281269e-06</v>
+        <v>2.522198830958195e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.15277777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>1794677.541468246</v>
+        <v>1894452.99473878</v>
       </c>
     </row>
     <row r="3">
@@ -20633,28 +20633,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1145.637941158721</v>
+        <v>1217.287270984642</v>
       </c>
       <c r="AB3" t="n">
-        <v>1567.512373072252</v>
+        <v>1665.546147085421</v>
       </c>
       <c r="AC3" t="n">
-        <v>1417.911192203669</v>
+        <v>1506.588760416287</v>
       </c>
       <c r="AD3" t="n">
-        <v>1145637.941158721</v>
+        <v>1217287.270984642</v>
       </c>
       <c r="AE3" t="n">
-        <v>1567512.373072252</v>
+        <v>1665546.147085421</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.461738621500377e-06</v>
+        <v>2.810977575686907e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.28888888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>1417911.192203669</v>
+        <v>1506588.760416287</v>
       </c>
     </row>
     <row r="4">
@@ -20739,28 +20739,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1155.385178117159</v>
+        <v>1227.034507943079</v>
       </c>
       <c r="AB4" t="n">
-        <v>1580.848972696532</v>
+        <v>1678.882746709701</v>
       </c>
       <c r="AC4" t="n">
-        <v>1429.974965477843</v>
+        <v>1518.652533690461</v>
       </c>
       <c r="AD4" t="n">
-        <v>1155385.178117159</v>
+        <v>1227034.50794308</v>
       </c>
       <c r="AE4" t="n">
-        <v>1580848.972696532</v>
+        <v>1678882.746709701</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.461567196776382e-06</v>
+        <v>2.810647919585618e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.29027777777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>1429974.965477843</v>
+        <v>1518652.533690461</v>
       </c>
     </row>
   </sheetData>
@@ -21036,28 +21036,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1082.899892003839</v>
+        <v>1166.835218650294</v>
       </c>
       <c r="AB2" t="n">
-        <v>1481.671406411157</v>
+        <v>1596.515423294106</v>
       </c>
       <c r="AC2" t="n">
-        <v>1340.262766922155</v>
+        <v>1444.146232018385</v>
       </c>
       <c r="AD2" t="n">
-        <v>1082899.892003839</v>
+        <v>1166835.218650294</v>
       </c>
       <c r="AE2" t="n">
-        <v>1481671.406411157</v>
+        <v>1596515.423294106</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.36392544793876e-06</v>
+        <v>2.81323170330786e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.73472222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>1340262.766922155</v>
+        <v>1444146.232018385</v>
       </c>
     </row>
   </sheetData>
@@ -21333,28 +21333,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4430.130221838879</v>
+        <v>4568.702793220911</v>
       </c>
       <c r="AB2" t="n">
-        <v>6061.499613071976</v>
+        <v>6251.10071862727</v>
       </c>
       <c r="AC2" t="n">
-        <v>5482.998597368296</v>
+        <v>5654.504439516209</v>
       </c>
       <c r="AD2" t="n">
-        <v>4430130.221838879</v>
+        <v>4568702.793220911</v>
       </c>
       <c r="AE2" t="n">
-        <v>6061499.613071976</v>
+        <v>6251100.71862727</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.825814716009663e-07</v>
+        <v>1.374964774504518e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.30833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>5482998.597368296</v>
+        <v>5654504.439516209</v>
       </c>
     </row>
     <row r="3">
@@ -21439,28 +21439,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2090.067252522776</v>
+        <v>2188.998830515506</v>
       </c>
       <c r="AB3" t="n">
-        <v>2859.722222161181</v>
+        <v>2995.084771724021</v>
       </c>
       <c r="AC3" t="n">
-        <v>2586.794346923463</v>
+        <v>2709.238084738558</v>
       </c>
       <c r="AD3" t="n">
-        <v>2090067.252522775</v>
+        <v>2188998.830515506</v>
       </c>
       <c r="AE3" t="n">
-        <v>2859722.222161181</v>
+        <v>2995084.771724021</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.187566613805792e-06</v>
+        <v>2.086507693595334e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.99444444444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>2586794.346923464</v>
+        <v>2709238.084738558</v>
       </c>
     </row>
     <row r="4">
@@ -21545,28 +21545,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1661.800483447407</v>
+        <v>1740.997039862885</v>
       </c>
       <c r="AB4" t="n">
-        <v>2273.748734915867</v>
+        <v>2382.108957309006</v>
       </c>
       <c r="AC4" t="n">
-        <v>2056.745346881889</v>
+        <v>2154.763821734353</v>
       </c>
       <c r="AD4" t="n">
-        <v>1661800.483447407</v>
+        <v>1740997.039862885</v>
       </c>
       <c r="AE4" t="n">
-        <v>2273748.734915867</v>
+        <v>2382108.957309006</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.334512210616433e-06</v>
+        <v>2.344685310514683e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.01388888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>2056745.346881889</v>
+        <v>2154763.821734353</v>
       </c>
     </row>
     <row r="5">
@@ -21651,28 +21651,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1427.870194264663</v>
+        <v>1497.241865564526</v>
       </c>
       <c r="AB5" t="n">
-        <v>1953.674992980047</v>
+        <v>2048.59237411466</v>
       </c>
       <c r="AC5" t="n">
-        <v>1767.218993650105</v>
+        <v>1853.077593146612</v>
       </c>
       <c r="AD5" t="n">
-        <v>1427870.194264663</v>
+        <v>1497241.865564526</v>
       </c>
       <c r="AE5" t="n">
-        <v>1953674.992980047</v>
+        <v>2048592.37411466</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.414524472754165e-06</v>
+        <v>2.485263698784906e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.10833333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1767218.993650105</v>
+        <v>1853077.593146612</v>
       </c>
     </row>
     <row r="6">
@@ -21757,28 +21757,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1376.1006761101</v>
+        <v>1455.297143017027</v>
       </c>
       <c r="AB6" t="n">
-        <v>1882.841654331023</v>
+        <v>1991.201754254614</v>
       </c>
       <c r="AC6" t="n">
-        <v>1703.145889426529</v>
+        <v>1801.164253497768</v>
       </c>
       <c r="AD6" t="n">
-        <v>1376100.6761101</v>
+        <v>1455297.143017027</v>
       </c>
       <c r="AE6" t="n">
-        <v>1882841.654331023</v>
+        <v>1991201.754254614</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.428526618628268e-06</v>
+        <v>2.509864916732194e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.95972222222222</v>
       </c>
       <c r="AH6" t="n">
-        <v>1703145.889426528</v>
+        <v>1801164.253497767</v>
       </c>
     </row>
   </sheetData>
@@ -22054,28 +22054,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>7269.511995353073</v>
+        <v>7443.811159138116</v>
       </c>
       <c r="AB2" t="n">
-        <v>9946.467020277425</v>
+        <v>10184.95082570454</v>
       </c>
       <c r="AC2" t="n">
-        <v>8997.190167815912</v>
+        <v>9212.913413567177</v>
       </c>
       <c r="AD2" t="n">
-        <v>7269511.995353073</v>
+        <v>7443811.159138116</v>
       </c>
       <c r="AE2" t="n">
-        <v>9946467.020277426</v>
+        <v>10184950.82570454</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.024363393909077e-07</v>
+        <v>1.030099003409641e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>35</v>
+        <v>34.1861111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>8997190.167815913</v>
+        <v>9212913.413567178</v>
       </c>
     </row>
     <row r="3">
@@ -22160,28 +22160,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2752.234458721521</v>
+        <v>2854.813526445677</v>
       </c>
       <c r="AB3" t="n">
-        <v>3765.728606437926</v>
+        <v>3906.081812367199</v>
       </c>
       <c r="AC3" t="n">
-        <v>3406.332753472641</v>
+        <v>3533.290846414981</v>
       </c>
       <c r="AD3" t="n">
-        <v>2752234.458721521</v>
+        <v>2854813.526445677</v>
       </c>
       <c r="AE3" t="n">
-        <v>3765728.606437926</v>
+        <v>3906081.812367199</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.046812836844649e-06</v>
+        <v>1.789933291674148e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.67222222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>3406332.753472641</v>
+        <v>3533290.846414981</v>
       </c>
     </row>
     <row r="4">
@@ -22266,28 +22266,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2124.633250692106</v>
+        <v>2206.696594379985</v>
       </c>
       <c r="AB4" t="n">
-        <v>2907.016945800674</v>
+        <v>3019.299633013811</v>
       </c>
       <c r="AC4" t="n">
-        <v>2629.575328517365</v>
+        <v>2731.141913652509</v>
       </c>
       <c r="AD4" t="n">
-        <v>2124633.250692106</v>
+        <v>2206696.594379985</v>
       </c>
       <c r="AE4" t="n">
-        <v>2907016.945800674</v>
+        <v>3019299.633013811</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.210655355925858e-06</v>
+        <v>2.070085740300201e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.01111111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>2629575.328517365</v>
+        <v>2731141.913652509</v>
       </c>
     </row>
     <row r="5">
@@ -22372,28 +22372,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1842.383556680464</v>
+        <v>1934.534035923061</v>
       </c>
       <c r="AB5" t="n">
-        <v>2520.830462476262</v>
+        <v>2646.914813568206</v>
       </c>
       <c r="AC5" t="n">
-        <v>2280.245941145301</v>
+        <v>2394.296978729528</v>
       </c>
       <c r="AD5" t="n">
-        <v>1842383.556680464</v>
+        <v>1934534.035923061</v>
       </c>
       <c r="AE5" t="n">
-        <v>2520830.462476262</v>
+        <v>2646914.813568206</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.295764501584332e-06</v>
+        <v>2.21561289460912e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.89305555555556</v>
       </c>
       <c r="AH5" t="n">
-        <v>2280245.941145301</v>
+        <v>2394296.978729528</v>
       </c>
     </row>
     <row r="6">
@@ -22478,28 +22478,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1669.486026182896</v>
+        <v>1751.378688161629</v>
       </c>
       <c r="AB6" t="n">
-        <v>2284.26443354878</v>
+        <v>2396.313586517346</v>
       </c>
       <c r="AC6" t="n">
-        <v>2066.257441996152</v>
+        <v>2167.612781067372</v>
       </c>
       <c r="AD6" t="n">
-        <v>1669486.026182896</v>
+        <v>1751378.688161629</v>
       </c>
       <c r="AE6" t="n">
-        <v>2284264.43354878</v>
+        <v>2396313.586517346</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.351367166430896e-06</v>
+        <v>2.310687255002576e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.23888888888889</v>
       </c>
       <c r="AH6" t="n">
-        <v>2066257.441996152</v>
+        <v>2167612.781067372</v>
       </c>
     </row>
     <row r="7">
@@ -22584,28 +22584,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1529.963351076529</v>
+        <v>1611.941264401282</v>
       </c>
       <c r="AB7" t="n">
-        <v>2093.363354162242</v>
+        <v>2205.529151783457</v>
       </c>
       <c r="AC7" t="n">
-        <v>1893.575693694917</v>
+        <v>1995.036545016849</v>
       </c>
       <c r="AD7" t="n">
-        <v>1529963.351076529</v>
+        <v>1611941.264401282</v>
       </c>
       <c r="AE7" t="n">
-        <v>2093363.354162242</v>
+        <v>2205529.151783457</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.388583883434863e-06</v>
+        <v>2.374323693559263e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.83055555555556</v>
       </c>
       <c r="AH7" t="n">
-        <v>1893575.693694917</v>
+        <v>1995036.545016849</v>
       </c>
     </row>
     <row r="8">
@@ -22690,28 +22690,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1505.252779414101</v>
+        <v>1587.230692738854</v>
       </c>
       <c r="AB8" t="n">
-        <v>2059.553259860225</v>
+        <v>2171.71905748144</v>
       </c>
       <c r="AC8" t="n">
-        <v>1862.99238734032</v>
+        <v>1964.453238662252</v>
       </c>
       <c r="AD8" t="n">
-        <v>1505252.779414101</v>
+        <v>1587230.692738854</v>
       </c>
       <c r="AE8" t="n">
-        <v>2059553.259860225</v>
+        <v>2171719.05748144</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.396145845853996e-06</v>
+        <v>2.387253806572773e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>14.75</v>
       </c>
       <c r="AH8" t="n">
-        <v>1862992.38734032</v>
+        <v>1964453.238662252</v>
       </c>
     </row>
     <row r="9">
@@ -22796,28 +22796,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1512.687502757915</v>
+        <v>1594.665416082668</v>
       </c>
       <c r="AB9" t="n">
-        <v>2069.725776336076</v>
+        <v>2181.891573957292</v>
       </c>
       <c r="AC9" t="n">
-        <v>1872.194053120932</v>
+        <v>1973.654904442865</v>
       </c>
       <c r="AD9" t="n">
-        <v>1512687.502757915</v>
+        <v>1594665.416082668</v>
       </c>
       <c r="AE9" t="n">
-        <v>2069725.776336076</v>
+        <v>2181891.573957292</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.396145845853996e-06</v>
+        <v>2.387253806572773e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>15</v>
+        <v>14.75138888888889</v>
       </c>
       <c r="AH9" t="n">
-        <v>1872194.053120932</v>
+        <v>1973654.904442864</v>
       </c>
     </row>
   </sheetData>
@@ -23093,28 +23093,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1107.344494717242</v>
+        <v>1196.69111565087</v>
       </c>
       <c r="AB2" t="n">
-        <v>1515.117590263396</v>
+        <v>1637.36557871951</v>
       </c>
       <c r="AC2" t="n">
-        <v>1370.51689392955</v>
+        <v>1481.097705943542</v>
       </c>
       <c r="AD2" t="n">
-        <v>1107344.494717242</v>
+        <v>1196691.11565087</v>
       </c>
       <c r="AE2" t="n">
-        <v>1515117.590263396</v>
+        <v>1637365.57871951</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.235542381814916e-06</v>
+        <v>2.648336403265108e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.41805555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>1370516.89392955</v>
+        <v>1481097.705943542</v>
       </c>
     </row>
   </sheetData>
@@ -23390,28 +23390,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2346.469655156428</v>
+        <v>2449.459746681709</v>
       </c>
       <c r="AB2" t="n">
-        <v>3210.543301120394</v>
+        <v>3351.458887947458</v>
       </c>
       <c r="AC2" t="n">
-        <v>2904.133554487166</v>
+        <v>3031.600355483718</v>
       </c>
       <c r="AD2" t="n">
-        <v>2346469.655156428</v>
+        <v>2449459.746681709</v>
       </c>
       <c r="AE2" t="n">
-        <v>3210543.301120394</v>
+        <v>3351458.887947458</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.069613327527936e-06</v>
+        <v>1.970690394618348e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.20555555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>2904133.554487166</v>
+        <v>3031600.355483718</v>
       </c>
     </row>
     <row r="3">
@@ -23496,28 +23496,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1345.017118097387</v>
+        <v>1419.957818552001</v>
       </c>
       <c r="AB3" t="n">
-        <v>1840.311758948231</v>
+        <v>1942.848931460603</v>
       </c>
       <c r="AC3" t="n">
-        <v>1664.674987567987</v>
+        <v>1757.426156247604</v>
       </c>
       <c r="AD3" t="n">
-        <v>1345017.118097387</v>
+        <v>1419957.818552001</v>
       </c>
       <c r="AE3" t="n">
-        <v>1840311.758948231</v>
+        <v>1942848.931460603</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.413359290038822e-06</v>
+        <v>2.604019139759054e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.04722222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>1664674.987567987</v>
+        <v>1757426.156247603</v>
       </c>
     </row>
     <row r="4">
@@ -23602,28 +23602,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1229.947901368557</v>
+        <v>1304.973853169192</v>
       </c>
       <c r="AB4" t="n">
-        <v>1682.868980124286</v>
+        <v>1785.522797289307</v>
       </c>
       <c r="AC4" t="n">
-        <v>1522.258326582672</v>
+        <v>1615.115007513</v>
       </c>
       <c r="AD4" t="n">
-        <v>1229947.901368557</v>
+        <v>1304973.853169192</v>
       </c>
       <c r="AE4" t="n">
-        <v>1682868.980124286</v>
+        <v>1785522.797289307</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.462512513181709e-06</v>
+        <v>2.694580637282737e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.50694444444444</v>
       </c>
       <c r="AH4" t="n">
-        <v>1522258.326582672</v>
+        <v>1615115.007513</v>
       </c>
     </row>
     <row r="5">
@@ -23708,28 +23708,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1236.025650734802</v>
+        <v>1310.881010334845</v>
       </c>
       <c r="AB5" t="n">
-        <v>1691.184824938561</v>
+        <v>1793.605230328734</v>
       </c>
       <c r="AC5" t="n">
-        <v>1529.780518839234</v>
+        <v>1622.42606448691</v>
       </c>
       <c r="AD5" t="n">
-        <v>1236025.650734802</v>
+        <v>1310881.010334845</v>
       </c>
       <c r="AE5" t="n">
-        <v>1691184.824938561</v>
+        <v>1793605.230328734</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.463818911138995e-06</v>
+        <v>2.696987587383034e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.49444444444444</v>
       </c>
       <c r="AH5" t="n">
-        <v>1529780.518839234</v>
+        <v>1622426.064486911</v>
       </c>
     </row>
   </sheetData>
@@ -24005,28 +24005,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3463.083499854369</v>
+        <v>3589.277094131528</v>
       </c>
       <c r="AB2" t="n">
-        <v>4738.343624962328</v>
+        <v>4911.007267920808</v>
       </c>
       <c r="AC2" t="n">
-        <v>4286.122759702789</v>
+        <v>4442.307626912251</v>
       </c>
       <c r="AD2" t="n">
-        <v>3463083.499854369</v>
+        <v>3589277.094131527</v>
       </c>
       <c r="AE2" t="n">
-        <v>4738343.624962328</v>
+        <v>4911007.267920808</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.865785330876953e-07</v>
+        <v>1.583807848384229e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.62777777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>4286122.75970279</v>
+        <v>4442307.626912251</v>
       </c>
     </row>
     <row r="3">
@@ -24111,28 +24111,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1794.370025754911</v>
+        <v>1881.62331172244</v>
       </c>
       <c r="AB3" t="n">
-        <v>2455.136231256431</v>
+        <v>2574.520026460508</v>
       </c>
       <c r="AC3" t="n">
-        <v>2220.821475150659</v>
+        <v>2328.811448496668</v>
       </c>
       <c r="AD3" t="n">
-        <v>1794370.025754911</v>
+        <v>1881623.31172244</v>
       </c>
       <c r="AE3" t="n">
-        <v>2455136.231256431</v>
+        <v>2574520.026460508</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.269101244739116e-06</v>
+        <v>2.267156756899715e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.20555555555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>2220821.475150659</v>
+        <v>2328811.448496668</v>
       </c>
     </row>
     <row r="4">
@@ -24217,28 +24217,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1419.489671536154</v>
+        <v>1497.199785463373</v>
       </c>
       <c r="AB4" t="n">
-        <v>1942.208392060332</v>
+        <v>2048.53479826382</v>
       </c>
       <c r="AC4" t="n">
-        <v>1756.846749028692</v>
+        <v>1853.025512254168</v>
       </c>
       <c r="AD4" t="n">
-        <v>1419489.671536154</v>
+        <v>1497199.785463373</v>
       </c>
       <c r="AE4" t="n">
-        <v>1942208.392060332</v>
+        <v>2048534.79826382</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.407614400910469e-06</v>
+        <v>2.514600401947863e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.5125</v>
       </c>
       <c r="AH4" t="n">
-        <v>1756846.749028692</v>
+        <v>1853025.512254168</v>
       </c>
     </row>
     <row r="5">
@@ -24323,28 +24323,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1322.180785370319</v>
+        <v>1390.177224565187</v>
       </c>
       <c r="AB5" t="n">
-        <v>1809.066081043161</v>
+        <v>1902.101808940762</v>
       </c>
       <c r="AC5" t="n">
-        <v>1636.411353308593</v>
+        <v>1720.567881912111</v>
       </c>
       <c r="AD5" t="n">
-        <v>1322180.785370319</v>
+        <v>1390177.224565187</v>
       </c>
       <c r="AE5" t="n">
-        <v>1809066.081043161</v>
+        <v>1902101.808940762</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.444404501414552e-06</v>
+        <v>2.58032323162013e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.11666666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1636411.353308593</v>
+        <v>1720567.881912111</v>
       </c>
     </row>
     <row r="6">
@@ -24429,28 +24429,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1329.630845516321</v>
+        <v>1397.627284711189</v>
       </c>
       <c r="AB6" t="n">
-        <v>1819.259582008379</v>
+        <v>1912.295309905979</v>
       </c>
       <c r="AC6" t="n">
-        <v>1645.632000848358</v>
+        <v>1729.788529451876</v>
       </c>
       <c r="AD6" t="n">
-        <v>1329630.845516321</v>
+        <v>1397627.284711189</v>
       </c>
       <c r="AE6" t="n">
-        <v>1819259.582008379</v>
+        <v>1912295.309905979</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.444404501414552e-06</v>
+        <v>2.58032323162013e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.11805555555556</v>
       </c>
       <c r="AH6" t="n">
-        <v>1645632.000848358</v>
+        <v>1729788.529451876</v>
       </c>
     </row>
   </sheetData>
